--- a/azota_assets/medias/excel_add_students_exp_v5.xlsx
+++ b/azota_assets/medias/excel_add_students_exp_v5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThuyTrang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82962DDD-ABAD-40F7-B4DA-E2B4F9943A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -68,9 +69,6 @@
     <t>23/2/2002</t>
   </si>
   <si>
-    <t>Hồ Văn E</t>
-  </si>
-  <si>
     <t>*Ngày sinh: có thể để trống</t>
   </si>
   <si>
@@ -92,9 +90,6 @@
     <t>0123456791</t>
   </si>
   <si>
-    <t>0123456792</t>
-  </si>
-  <si>
     <t>0123456793</t>
   </si>
   <si>
@@ -125,19 +120,28 @@
     <t>Email</t>
   </si>
   <si>
-    <t>*Email: không có khoảng cách hoặc có thể để trống</t>
-  </si>
-  <si>
     <t>phamthib@gmail.com</t>
   </si>
   <si>
     <t>tranthid@gmail.com</t>
+  </si>
+  <si>
+    <t>*Email: Phải đúng định dạng, không có khoảng cách hoặc có thể để trống</t>
+  </si>
+  <si>
+    <t>C@Gmail.com</t>
+  </si>
+  <si>
+    <t>0112348478</t>
+  </si>
+  <si>
+    <t>Hồ Văn E1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -233,11 +237,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -639,13 +643,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -653,16 +657,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -672,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>7</v>
@@ -686,16 +690,16 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -705,10 +709,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -716,16 +723,16 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -735,13 +742,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -750,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -765,14 +772,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -802,9 +809,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{7AC2C301-9670-4925-86EE-50C21A57A35A}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
